--- a/엑셀.xlsx
+++ b/엑셀.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교 과제\졸업과제\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8B0B17-83DF-4CFF-A0CB-1674CE478F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F92971-6ACE-488C-A18E-D00B38AD3287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="3150" windowWidth="20730" windowHeight="11160" xr2:uid="{7EF45D0E-3BF1-41D6-9179-ABE65E16183B}"/>
   </bookViews>
@@ -31,20 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Mini HDMI(M) - HDMI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2428247588&amp;trTypeCd=PW24&amp;trCtgrNo=585021&amp;lCtgrNo=1001445&amp;mCtgrNo=1002984</t>
-  </si>
-  <si>
-    <t>라즈베리파이 제로 카메라</t>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1819581120&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>삼성셀 2900mAh 보호배터리</t>
   </si>
@@ -56,13 +43,6 @@
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1620326901&amp;cls=4044&amp;trTypeCd=104</t>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2366118088&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002932</t>
-  </si>
-  <si>
-    <t>라즈베리파이 제로 WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2028684288&amp;cls=4044&amp;trTypeCd=104</t>
@@ -78,30 +58,41 @@
     <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2028684428&amp;cls=4044&amp;trTypeCd=104</t>
   </si>
   <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1394595274&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
-  </si>
-  <si>
-    <t>아두이노 나노</t>
+    <t>http://www.devicemart.co.kr/goods/view?no=1329604</t>
+  </si>
+  <si>
+    <t>DC 웜기어드</t>
+  </si>
+  <si>
+    <t>커플리은 g마켓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2756372280&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
-  </si>
-  <si>
-    <t>RF통신 HC-11 RF</t>
-  </si>
-  <si>
-    <t>소형 DC기어드모터</t>
-  </si>
-  <si>
-    <t>http://www.devicemart.co.kr/goods/view?no=1329599</t>
+    <t>http://www.devicemart.co.kr/goods/view?no=1265675</t>
+  </si>
+  <si>
+    <t>모터 드라이브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>듀얼 DC모터 드라이브 속도제어기</t>
-  </si>
-  <si>
-    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2735413982&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
+    <t>ESP32-CAM</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/goods/view?no=12496229</t>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2406317238&amp;trTypeCd=PW24&amp;trCtgrNo=585021&amp;lCtgrNo=1001444&amp;mCtgrNo=1002939</t>
+  </si>
+  <si>
+    <t>EPS32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=2140438330&amp;trTypeCd=PW53&amp;trCtgrNo=585021</t>
   </si>
 </sst>
 </file>
@@ -510,7 +501,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,62 +514,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6">
-        <v>35500</v>
-      </c>
+      <c r="C1" s="6"/>
       <c r="D1" s="6">
         <f>B1*C1</f>
-        <v>35500</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>6810</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D17" si="0">B2*C2</f>
-        <v>6810</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="D2:D23" si="0">B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>30250</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6">
         <f t="shared" si="0"/>
-        <v>30250</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -591,12 +552,12 @@
         <v>11120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -609,12 +570,12 @@
         <v>1000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -627,12 +588,12 @@
         <v>7000</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -645,80 +606,40 @@
         <v>3000</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3500</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>14000</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10140</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>30420</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>14000</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>28000</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>3000</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="6">
         <f>B11*C11</f>
-        <v>6000</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="5"/>
@@ -737,14 +658,27 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="5"/>
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8500</v>
+      </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>17000</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
@@ -753,43 +687,121 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>18000</v>
+      </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
+        <v>36000</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7200</v>
+      </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+        <v>21600</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9300</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>37200</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <f>SUM(D1:D23)</f>
-        <v>173100</v>
+        <v>151920</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{ED8CE70C-043B-4A37-924C-A89568F204E7}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{2E9B3706-3392-4986-9FBD-FC05AB0F43A5}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{9577D865-17DA-4781-A631-5D67CECE4159}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{5FA4F686-29B3-4B23-A4CC-DE05991C1243}"/>
-    <hyperlink ref="E1" r:id="rId5" xr:uid="{94E976E5-4B46-45CC-865D-EAA50096ADBB}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{87594534-D277-4B53-A0AC-52E9D21B3BA3}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{B1970247-93C5-4834-854D-0026CF06B3C2}"/>
-    <hyperlink ref="E8" r:id="rId8" xr:uid="{1FC772A1-D4D5-4183-8C60-4EA5238B9E3E}"/>
-    <hyperlink ref="E9" r:id="rId9" xr:uid="{0BBB04B7-82E0-42DC-8A1E-65FD39513169}"/>
-    <hyperlink ref="E10" r:id="rId10" xr:uid="{F13D4E0D-810E-43D6-98A6-B448C8614E22}"/>
-    <hyperlink ref="E11" r:id="rId11" xr:uid="{ADF06A70-FAC9-4D99-AEF6-3ED05B518CDF}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{9577D865-17DA-4781-A631-5D67CECE4159}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{5FA4F686-29B3-4B23-A4CC-DE05991C1243}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{87594534-D277-4B53-A0AC-52E9D21B3BA3}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{B1970247-93C5-4834-854D-0026CF06B3C2}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{6A54B5DC-451C-4824-B558-6069D9042964}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{A48669D0-A1D1-4EFE-B5DF-A81262F58B51}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{D5E8563A-AAC9-4132-B2EB-6FB50F1E2836}"/>
+    <hyperlink ref="E19" r:id="rId8" xr:uid="{4DED23F0-8D02-46D5-B7FB-A9768643FE8B}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{774678B8-EDD9-44EE-9CA3-15D69A99CD65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>